--- a/test/files/style2.xlsx
+++ b/test/files/style2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -42,10 +42,6 @@
     <font>
       <b/>
       <i/>
-      <u/>
-      <strike/>
-      <outline/>
-      <shadow/>
       <sz val="32"/>
       <color rgb="FF0022FF"/>
       <name val="Verdana"/>
@@ -107,7 +103,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
